--- a/Homeworks/layout_hw5/report.xlsx
+++ b/Homeworks/layout_hw5/report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Documents\Python Scripts\BigDataT\Homeworks\layout_hw5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31FB46A-8E6B-4A16-94BE-2BF8B6F0DFA9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2001834E-D9D5-4996-876D-6ADBEACC2C6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1837" yWindow="1837" windowWidth="16876" windowHeight="10523" xr2:uid="{67DFA62F-3C1E-464E-9EF7-EAF5549706FA}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="16876" windowHeight="10523" xr2:uid="{67DFA62F-3C1E-464E-9EF7-EAF5549706FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Задание 1</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>1.1 M</t>
+  </si>
+  <si>
+    <t>69 сек</t>
+  </si>
+  <si>
+    <t>70 сек</t>
+  </si>
+  <si>
+    <t>77 сек</t>
+  </si>
+  <si>
+    <t>81 сек</t>
   </si>
 </sst>
 </file>
@@ -445,7 +457,7 @@
   <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -506,11 +518,23 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
